--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B3210B-4700-4BE0-AF7E-DA32E448C69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C973D6F3-3486-4BCB-9D82-7D1A70D00F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -41,9 +41,6 @@
     <t>IntEntryNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">IntTotalOnlineTime </t>
-  </si>
-  <si>
     <t>IntTotalOfflineTime</t>
   </si>
   <si>
@@ -150,6 +147,21 @@
   </si>
   <si>
     <t>http://buhev-jira.conti.de:7090/browse/</t>
+  </si>
+  <si>
+    <t>16/04/2019</t>
+  </si>
+  <si>
+    <t>IntTotalTimeInDay</t>
+  </si>
+  <si>
+    <t>dasdsa</t>
+  </si>
+  <si>
+    <t>sadsadsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadsadsa </t>
   </si>
 </sst>
 </file>
@@ -527,19 +539,19 @@
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -547,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>0.73749999999999993</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -564,16 +576,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>0.73749999999999993</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -581,16 +593,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>0.73749999999999993</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -598,16 +610,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>0.74375000000000002</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -615,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>0.74375000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -629,16 +641,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <v>0.74375000000000002</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -646,16 +658,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>0.74583333333333324</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -663,16 +675,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>0.74652777777777779</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
@@ -680,16 +692,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>0.74791666666666667</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
@@ -697,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>0.74930555555555556</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
@@ -714,16 +726,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>0.75138888888888899</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -731,16 +743,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>0.75416666666666676</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -748,16 +760,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
         <v>0.75486111111111109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -765,16 +777,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
         <v>0.7583333333333333</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -782,16 +794,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
         <v>0.76041666666666663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -799,16 +811,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>0.76111111111111107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -816,16 +828,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>0.76250000000000007</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -833,16 +845,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
         <v>0.76458333333333339</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -850,16 +862,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <v>0.76458333333333339</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -867,13 +879,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -881,13 +893,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
         <v>0.79236111111111107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -895,16 +907,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2">
         <v>0.67499999999999993</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
@@ -912,13 +924,13 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
         <v>0.68611111111111101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -926,16 +938,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
         <v>0.69374999999999998</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -943,16 +955,16 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
         <v>0.69374999999999998</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -960,16 +972,16 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>0.69374999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -977,16 +989,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
         <v>0.69374999999999998</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -994,16 +1006,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
         <v>0.69374999999999998</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -1011,16 +1023,16 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2">
         <v>0.72152777777777777</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
@@ -1028,16 +1040,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2">
         <v>0.34861111111111115</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -1045,16 +1057,16 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
         <v>0.3888888888888889</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
@@ -1062,47 +1074,204 @@
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
         <v>0.43263888888888885</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
         <v>34</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
@@ -1204,7 +1373,7 @@
   <dimension ref="C9:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1400,7 @@
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1239,7 +1408,7 @@
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1247,7 +1416,7 @@
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1255,28 +1424,36 @@
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <v>480</v>
@@ -1284,7 +1461,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
         <v>45</v>
@@ -1292,10 +1469,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -1303,18 +1480,18 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C973D6F3-3486-4BCB-9D82-7D1A70D00F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF5381-BDD2-4699-BF3D-74DBA3DDD96E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF5381-BDD2-4699-BF3D-74DBA3DDD96E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC935B-E092-4AB8-8DE0-7D343C266A75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>180</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>180</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC935B-E092-4AB8-8DE0-7D343C266A75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D55D0-C4E4-44B6-A281-D08081249502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -1273,49 +1273,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
@@ -1387,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1436,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1480,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D55D0-C4E4-44B6-A281-D08081249502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EBDDF-8E7D-4037-80D0-B3D4A9764120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve">sadsadsa </t>
+  </si>
+  <si>
+    <t>17/04/2019</t>
+  </si>
+  <si>
+    <t>18/04/2019</t>
   </si>
 </sst>
 </file>
@@ -1291,16 +1297,72 @@
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
+      <c r="C50" s="1">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
+      <c r="C51" s="1">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
+      <c r="C52" s="1">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="2"/>
+      <c r="C53" s="1">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
@@ -1404,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1460,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EBDDF-8E7D-4037-80D0-B3D4A9764120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC077-657F-4FEE-949F-45239FD38E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>18/04/2019</t>
+  </si>
+  <si>
+    <t>19/04/2019</t>
+  </si>
+  <si>
+    <t>To do</t>
   </si>
 </sst>
 </file>
@@ -1365,16 +1371,72 @@
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
+      <c r="C54" s="1">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
+      <c r="C55" s="1">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
+      <c r="C56" s="1">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
+      <c r="C57" s="1">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
@@ -1466,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1498,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1514,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1522,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC077-657F-4FEE-949F-45239FD38E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC604DD-A16F-45BC-86F2-01910E45B396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
+    <workbookView xWindow="3570" yWindow="255" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -174,6 +174,36 @@
   </si>
   <si>
     <t>To do</t>
+  </si>
+  <si>
+    <t>21/04/2019</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>StrCurrentTaskID</t>
+  </si>
+  <si>
+    <t>BMF2304</t>
+  </si>
+  <si>
+    <t>TASK ID</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Task Changed</t>
+  </si>
+  <si>
+    <t>bsw3214</t>
+  </si>
+  <si>
+    <t>16 min break</t>
   </si>
 </sst>
 </file>
@@ -534,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="C5:G79"/>
+  <dimension ref="C5:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="C37:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +579,7 @@
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -563,10 +593,13 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -583,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -600,7 +633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -617,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -634,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -648,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -665,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -682,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -699,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -716,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -733,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1285,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>44</v>
       </c>
@@ -1302,7 +1335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>45</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>46</v>
       </c>
@@ -1336,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>47</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>48</v>
       </c>
@@ -1370,7 +1403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>49</v>
       </c>
@@ -1387,7 +1420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>50</v>
       </c>
@@ -1404,7 +1437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>51</v>
       </c>
@@ -1421,7 +1454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>52</v>
       </c>
@@ -1438,71 +1471,524 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <v>67</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>70</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <v>76</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <v>77</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1511,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
-  <dimension ref="C9:E26"/>
+  <dimension ref="C9:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1560,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1568,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -1576,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1584,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -1633,6 +2119,14 @@
       </c>
       <c r="E26" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC604DD-A16F-45BC-86F2-01910E45B396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EA44E-6977-4350-BA52-9277445474DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="255" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">

--- a/Revision1.1/bin/Debug/Revision.xlsx
+++ b/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EA44E-6977-4350-BA52-9277445474DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FDCA3-786A-48CF-A008-0E477D6D5A98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="255" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="66">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>16 min break</t>
+  </si>
+  <si>
+    <t>1 min break</t>
+  </si>
+  <si>
+    <t>33 min break</t>
+  </si>
+  <si>
+    <t>15 min break</t>
+  </si>
+  <si>
+    <t>8 min break</t>
+  </si>
+  <si>
+    <t>38 min break</t>
+  </si>
+  <si>
+    <t>25/04/2019</t>
+  </si>
+  <si>
+    <t>10 min break</t>
   </si>
 </sst>
 </file>
@@ -564,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="C5:H84"/>
+  <dimension ref="C5:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
@@ -1987,6 +2008,248 @@
         <v>58</v>
       </c>
       <c r="H84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
+        <v>83</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <v>91</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2014,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -2046,7 +2309,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -2054,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -2062,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
